--- a/src/test/resources/substituttlister/V2_stoler_med_oppreisingsfunksjon.xlsx
+++ b/src/test/resources/substituttlister/V2_stoler_med_oppreisingsfunksjon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasmund/dev/hm-grunndata-alternativprodukter/src/test/resources/substituttlister/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasmund/dev/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE410A4D-A2A7-3A44-A6F3-5E9DDA02807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E681A5-CC35-C743-BA0A-D75D3534C16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3000" yWindow="-23760" windowWidth="26200" windowHeight="22740" firstSheet="1" activeTab="1" xr2:uid="{DAB7D3D8-04D0-4DD5-9B74-78B882D95CED}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="303">
   <si>
     <t>Delkontrakt</t>
   </si>
@@ -967,76 +967,7 @@
     <t>123458</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -2147,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3485A8-7267-48FD-BE99-693AE922852B}">
   <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2218,9 +2149,10 @@
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="22"/>
       <c r="E6" s="1"/>
@@ -2276,9 +2208,10 @@
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="22"/>
       <c r="E12" s="1"/>
@@ -2314,14 +2247,15 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="22"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="26" t="s">
         <v>14</v>
@@ -2331,7 +2265,7 @@
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="26" t="s">
         <v>15</v>
@@ -2341,7 +2275,7 @@
       </c>
       <c r="E18" s="26"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="26" t="s">
         <v>15</v>
@@ -2351,15 +2285,16 @@
       </c>
       <c r="E19" s="26"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>325</v>
-      </c>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="26" t="s">
         <v>16</v>
@@ -2369,7 +2304,7 @@
       </c>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="26" t="s">
         <v>17</v>
@@ -2379,7 +2314,7 @@
       </c>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="26" t="s">
         <v>17</v>
@@ -2389,7 +2324,7 @@
       </c>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="26" t="s">
         <v>18</v>
@@ -2399,7 +2334,7 @@
       </c>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="26" t="s">
         <v>18</v>
@@ -2409,15 +2344,16 @@
       </c>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>325</v>
-      </c>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="22"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="26" t="s">
         <v>19</v>
@@ -2427,7 +2363,7 @@
       </c>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="26" t="s">
         <v>20</v>
@@ -2437,7 +2373,7 @@
       </c>
       <c r="E28" s="28"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="26" t="s">
         <v>20</v>
@@ -2447,7 +2383,7 @@
       </c>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="26" t="s">
         <v>21</v>
@@ -2455,11 +2391,9 @@
       <c r="D30" s="27">
         <v>196183</v>
       </c>
-      <c r="E30" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="26" t="s">
         <v>21</v>
@@ -2469,15 +2403,16 @@
       </c>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>325</v>
-      </c>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="22"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="26" t="s">
         <v>22</v>
@@ -2487,7 +2422,7 @@
       </c>
       <c r="E33" s="26"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="26" t="s">
         <v>23</v>
@@ -2497,7 +2432,7 @@
       </c>
       <c r="E34" s="26"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="26" t="s">
         <v>23</v>
@@ -2505,11 +2440,9 @@
       <c r="D35" s="27">
         <v>250410</v>
       </c>
-      <c r="E35" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="26" t="s">
         <v>24</v>
@@ -2519,15 +2452,16 @@
       </c>
       <c r="E36" s="26"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>325</v>
-      </c>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="26" t="s">
         <v>26</v>
@@ -2537,7 +2471,7 @@
       </c>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="26" t="s">
         <v>27</v>
@@ -2547,7 +2481,7 @@
       </c>
       <c r="E39" s="26"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="26" t="s">
         <v>27</v>
@@ -2555,11 +2489,9 @@
       <c r="D40" s="27">
         <v>250409</v>
       </c>
-      <c r="E40" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="26" t="s">
         <v>28</v>
@@ -2569,15 +2501,16 @@
       </c>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>325</v>
-      </c>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="26"/>
       <c r="D42" s="27"/>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="26" t="s">
         <v>29</v>
@@ -2587,7 +2520,7 @@
       </c>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="26" t="s">
         <v>30</v>
@@ -2595,19 +2528,18 @@
       <c r="D44" s="27">
         <v>240520</v>
       </c>
-      <c r="E44" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>31</v>
@@ -2616,18 +2548,15 @@
         <v>296140</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="21">
         <v>240534</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
@@ -2635,12 +2564,12 @@
         <v>195627</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>34</v>
@@ -2648,11 +2577,8 @@
       <c r="D50" s="21">
         <v>296141</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>35</v>
       </c>
@@ -2660,7 +2586,7 @@
         <v>240533</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
         <v>36</v>
       </c>
@@ -2668,12 +2594,12 @@
         <v>195626</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>37</v>
@@ -2682,18 +2608,15 @@
         <v>296142</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="21">
         <v>296310</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
         <v>39</v>
       </c>
@@ -2701,7 +2624,7 @@
         <v>296312</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
         <v>40</v>
       </c>
@@ -2709,7 +2632,7 @@
         <v>295771</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
         <v>41</v>
       </c>
@@ -2717,7 +2640,7 @@
         <v>295772</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
         <v>42</v>
       </c>
@@ -2725,7 +2648,7 @@
         <v>240536</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
         <v>43</v>
       </c>
@@ -2733,7 +2656,7 @@
         <v>195735</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
         <v>44</v>
       </c>
@@ -2741,12 +2664,12 @@
         <v>195733</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
         <v>45</v>
@@ -2755,7 +2678,7 @@
         <v>296143</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
         <v>46</v>
       </c>
@@ -2763,7 +2686,7 @@
         <v>296311</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
         <v>47</v>
       </c>
@@ -2771,18 +2694,15 @@
         <v>296313</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D66" s="21">
         <v>295766</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
         <v>49</v>
       </c>
@@ -2790,7 +2710,7 @@
         <v>295767</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
         <v>50</v>
       </c>
@@ -2798,7 +2718,7 @@
         <v>240535</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
         <v>51</v>
       </c>
@@ -2806,7 +2726,7 @@
         <v>195734</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
         <v>52</v>
       </c>
@@ -2814,12 +2734,12 @@
         <v>195732</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
         <v>53</v>
       </c>
@@ -2827,7 +2747,7 @@
         <v>296144</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
         <v>38</v>
       </c>
@@ -2835,18 +2755,15 @@
         <v>296310</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D74" s="21">
         <v>296312</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
         <v>55</v>
       </c>
@@ -2854,7 +2771,7 @@
         <v>295773</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
         <v>56</v>
       </c>
@@ -2862,7 +2779,7 @@
         <v>295774</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
         <v>57</v>
       </c>
@@ -2870,7 +2787,7 @@
         <v>240538</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
         <v>58</v>
       </c>
@@ -2878,7 +2795,7 @@
         <v>195625</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
         <v>59</v>
       </c>
@@ -2886,7 +2803,7 @@
         <v>195633</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
         <v>60</v>
       </c>
@@ -2894,7 +2811,7 @@
         <v>195739</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
         <v>61</v>
       </c>
@@ -2902,12 +2819,12 @@
         <v>195737</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C83" s="2" t="s">
         <v>62</v>
       </c>
@@ -2915,7 +2832,7 @@
         <v>296145</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
         <v>63</v>
       </c>
@@ -2923,7 +2840,7 @@
         <v>296311</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
         <v>64</v>
       </c>
@@ -2931,18 +2848,15 @@
         <v>296313</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D86" s="21">
         <v>295768</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
         <v>66</v>
       </c>
@@ -2950,7 +2864,7 @@
         <v>295769</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
         <v>67</v>
       </c>
@@ -2958,7 +2872,7 @@
         <v>240537</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
         <v>68</v>
       </c>
@@ -2966,7 +2880,7 @@
         <v>195624</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
         <v>69</v>
       </c>
@@ -2974,7 +2888,7 @@
         <v>195632</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
         <v>70</v>
       </c>
@@ -2982,7 +2896,7 @@
         <v>195738</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
         <v>71</v>
       </c>
@@ -2990,12 +2904,12 @@
         <v>195736</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
         <v>72</v>
       </c>
@@ -3003,7 +2917,7 @@
         <v>296146</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
         <v>73</v>
       </c>
@@ -3011,7 +2925,7 @@
         <v>296306</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
         <v>74</v>
       </c>
@@ -3019,7 +2933,7 @@
         <v>296308</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
         <v>75</v>
       </c>
@@ -3027,18 +2941,15 @@
         <v>296314</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D98" s="21">
         <v>295775</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>77</v>
       </c>
@@ -3046,7 +2957,7 @@
         <v>240540</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
         <v>58</v>
       </c>
@@ -3054,7 +2965,7 @@
         <v>195625</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
         <v>59</v>
       </c>
@@ -3062,7 +2973,7 @@
         <v>195633</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>78</v>
       </c>
@@ -3070,13 +2981,13 @@
         <v>195741</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="2" t="s">
-        <v>325</v>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D103" s="21"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>79</v>
       </c>
@@ -3084,7 +2995,7 @@
         <v>296147</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
         <v>80</v>
       </c>
@@ -3092,18 +3003,15 @@
         <v>296307</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D106" s="21">
         <v>296309</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
         <v>82</v>
       </c>
@@ -3111,7 +3019,7 @@
         <v>296315</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
         <v>83</v>
       </c>
@@ -3119,7 +3027,7 @@
         <v>295770</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
         <v>84</v>
       </c>
@@ -3127,7 +3035,7 @@
         <v>240539</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
         <v>68</v>
       </c>
@@ -3135,7 +3043,7 @@
         <v>195624</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
         <v>85</v>
       </c>
@@ -3143,13 +3051,13 @@
         <v>195740</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="2" t="s">
-        <v>325</v>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D112" s="21"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
         <v>86</v>
       </c>
@@ -3157,7 +3065,7 @@
         <v>296148</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
         <v>87</v>
       </c>
@@ -3165,18 +3073,15 @@
         <v>295777</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D115" s="21">
         <v>240522</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
         <v>89</v>
       </c>
@@ -3184,7 +3089,7 @@
         <v>195743</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
         <v>90</v>
       </c>
@@ -3192,12 +3097,12 @@
         <v>195637</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
         <v>91</v>
       </c>
@@ -3205,7 +3110,7 @@
         <v>296149</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
         <v>92</v>
       </c>
@@ -3213,7 +3118,7 @@
         <v>295776</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
         <v>93</v>
       </c>
@@ -3221,18 +3126,15 @@
         <v>240521</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D122" s="21">
         <v>195742</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
         <v>95</v>
       </c>
@@ -3240,12 +3142,12 @@
         <v>195636</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
         <v>96</v>
       </c>
@@ -3253,7 +3155,7 @@
         <v>296316</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
         <v>97</v>
       </c>
@@ -3261,7 +3163,7 @@
         <v>296318</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
         <v>98</v>
       </c>
@@ -3269,7 +3171,7 @@
         <v>296324</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
         <v>99</v>
       </c>
@@ -3277,7 +3179,7 @@
         <v>241480</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
         <v>100</v>
       </c>
@@ -3285,7 +3187,7 @@
         <v>241475</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
         <v>101</v>
       </c>
@@ -3293,18 +3195,15 @@
         <v>241460</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D131" s="21">
         <v>241476</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
         <v>102</v>
       </c>
@@ -3312,7 +3211,7 @@
         <v>241478</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
         <v>103</v>
       </c>
@@ -3320,7 +3219,7 @@
         <v>241456</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
         <v>104</v>
       </c>
@@ -3328,7 +3227,7 @@
         <v>241458</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
         <v>105</v>
       </c>
@@ -3336,7 +3235,7 @@
         <v>296164</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
         <v>106</v>
       </c>
@@ -3344,7 +3243,7 @@
         <v>240550</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
         <v>107</v>
       </c>
@@ -3352,7 +3251,7 @@
         <v>240530</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
         <v>108</v>
       </c>
@@ -3360,7 +3259,7 @@
         <v>195742</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
         <v>109</v>
       </c>
@@ -3368,12 +3267,12 @@
         <v>195752</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="2" t="s">
         <v>110</v>
@@ -3382,7 +3281,7 @@
         <v>296162</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
         <v>111</v>
       </c>
@@ -3390,7 +3289,7 @@
         <v>240548</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
         <v>112</v>
       </c>
@@ -3398,7 +3297,7 @@
         <v>240528</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
         <v>113</v>
       </c>
@@ -3406,7 +3305,7 @@
         <v>195744</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
         <v>114</v>
       </c>
@@ -3414,7 +3313,7 @@
         <v>195750</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
         <v>115</v>
       </c>
@@ -3422,7 +3321,7 @@
         <v>195760</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
         <v>116</v>
       </c>
@@ -3430,7 +3329,7 @@
         <v>296320</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
         <v>117</v>
       </c>
@@ -3438,18 +3337,15 @@
         <v>296322</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D149" s="21">
         <v>241484</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
         <v>119</v>
       </c>
@@ -3457,7 +3353,7 @@
         <v>241482</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C151" s="2" t="s">
         <v>120</v>
       </c>
@@ -3465,7 +3361,7 @@
         <v>241464</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
         <v>121</v>
       </c>
@@ -3473,12 +3369,12 @@
         <v>241462</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C154" s="2" t="s">
         <v>122</v>
       </c>
@@ -3486,23 +3382,20 @@
         <v>240544</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C155" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D155" s="21">
         <v>240524</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="2" t="s">
         <v>124</v>
@@ -3511,7 +3404,7 @@
         <v>296160</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C158" s="2" t="s">
         <v>125</v>
       </c>
@@ -3519,18 +3412,15 @@
         <v>240546</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C159" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D159" s="21">
         <v>195746</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C160" s="2" t="s">
         <v>127</v>
       </c>
@@ -3538,7 +3428,7 @@
         <v>195748</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C161" s="2" t="s">
         <v>128</v>
       </c>
@@ -3546,7 +3436,7 @@
         <v>195756</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C162" s="2" t="s">
         <v>129</v>
       </c>
@@ -3554,7 +3444,7 @@
         <v>195758</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C163" s="2" t="s">
         <v>128</v>
       </c>
@@ -3562,12 +3452,12 @@
         <v>195757</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C165" s="2" t="s">
         <v>130</v>
       </c>
@@ -3575,18 +3465,15 @@
         <v>296317</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C166" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D166" s="21">
         <v>296319</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C167" s="2" t="s">
         <v>132</v>
       </c>
@@ -3594,7 +3481,7 @@
         <v>296325</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C168" s="2" t="s">
         <v>133</v>
       </c>
@@ -3602,7 +3489,7 @@
         <v>296165</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C169" s="2" t="s">
         <v>134</v>
       </c>
@@ -3610,7 +3497,7 @@
         <v>241479</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C170" s="2" t="s">
         <v>135</v>
       </c>
@@ -3618,7 +3505,7 @@
         <v>241477</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C171" s="2" t="s">
         <v>136</v>
       </c>
@@ -3626,7 +3513,7 @@
         <v>241459</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C172" s="2" t="s">
         <v>137</v>
       </c>
@@ -3634,7 +3521,7 @@
         <v>241455</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C173" s="2" t="s">
         <v>138</v>
       </c>
@@ -3642,7 +3529,7 @@
         <v>241457</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C174" s="2" t="s">
         <v>139</v>
       </c>
@@ -3650,7 +3537,7 @@
         <v>240549</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C175" s="2" t="s">
         <v>140</v>
       </c>
@@ -3658,7 +3545,7 @@
         <v>240529</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C176" s="2" t="s">
         <v>141</v>
       </c>
@@ -3666,7 +3553,7 @@
         <v>195743</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C177" s="2" t="s">
         <v>142</v>
       </c>
@@ -3674,7 +3561,7 @@
         <v>195753</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C178" s="2" t="s">
         <v>143</v>
       </c>
@@ -3682,12 +3569,12 @@
         <v>195761</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C180" s="2" t="s">
         <v>144</v>
       </c>
@@ -3695,18 +3582,15 @@
         <v>296321</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C181" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D181" s="21">
         <v>296323</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C182" s="2" t="s">
         <v>146</v>
       </c>
@@ -3714,7 +3598,7 @@
         <v>241483</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C183" s="2" t="s">
         <v>147</v>
       </c>
@@ -3722,7 +3606,7 @@
         <v>241481</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C184" s="2" t="s">
         <v>148</v>
       </c>
@@ -3730,7 +3614,7 @@
         <v>241463</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C185" s="2" t="s">
         <v>149</v>
       </c>
@@ -3738,7 +3622,7 @@
         <v>241461</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C186" s="2" t="s">
         <v>150</v>
       </c>
@@ -3746,7 +3630,7 @@
         <v>296163</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C187" s="2" t="s">
         <v>151</v>
       </c>
@@ -3754,7 +3638,7 @@
         <v>240547</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C188" s="2" t="s">
         <v>152</v>
       </c>
@@ -3762,7 +3646,7 @@
         <v>240527</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C189" s="2" t="s">
         <v>153</v>
       </c>
@@ -3770,7 +3654,7 @@
         <v>195745</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C190" s="2" t="s">
         <v>154</v>
       </c>
@@ -3778,7 +3662,7 @@
         <v>195755</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C191" s="2" t="s">
         <v>155</v>
       </c>
@@ -3786,13 +3670,13 @@
         <v>195751</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="2" t="s">
-        <v>325</v>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D192" s="21"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="2" t="s">
         <v>156</v>
@@ -3801,7 +3685,7 @@
         <v>296159</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C194" s="2" t="s">
         <v>157</v>
       </c>
@@ -3809,23 +3693,20 @@
         <v>240523</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C195" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D195" s="21">
         <v>240543</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B196" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
         <v>159</v>
@@ -3834,7 +3715,7 @@
         <v>296161</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C198" s="2" t="s">
         <v>160</v>
       </c>
@@ -3842,18 +3723,15 @@
         <v>195747</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C199" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D199" s="21">
         <v>195749</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C200" s="2" t="s">
         <v>162</v>
       </c>
@@ -3861,12 +3739,12 @@
         <v>195759</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B201" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C202" s="2" t="s">
         <v>163</v>
       </c>
@@ -3874,7 +3752,7 @@
         <v>296166</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C203" s="2" t="s">
         <v>164</v>
       </c>
@@ -3882,7 +3760,7 @@
         <v>295789</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C204" s="2" t="s">
         <v>165</v>
       </c>
@@ -3890,7 +3768,7 @@
         <v>240552</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C205" s="2" t="s">
         <v>166</v>
       </c>
@@ -3898,18 +3776,15 @@
         <v>241081</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C206" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D206" s="21">
         <v>196200</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C207" s="2" t="s">
         <v>168</v>
       </c>
@@ -3917,12 +3792,12 @@
         <v>195762</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B208" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C209" s="2" t="s">
         <v>169</v>
       </c>
@@ -3930,7 +3805,7 @@
         <v>296167</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C210" s="2" t="s">
         <v>170</v>
       </c>
@@ -3938,7 +3813,7 @@
         <v>295788</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C211" s="2" t="s">
         <v>171</v>
       </c>
@@ -3946,18 +3821,15 @@
         <v>240551</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C212" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D212" s="21">
         <v>241080</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C213" s="2" t="s">
         <v>173</v>
       </c>
@@ -3965,7 +3837,7 @@
         <v>196199</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C214" s="2" t="s">
         <v>174</v>
       </c>
@@ -3973,13 +3845,13 @@
         <v>195763</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B215" s="2" t="s">
-        <v>325</v>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D215" s="24"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C216" s="2" t="s">
         <v>175</v>
       </c>
@@ -3987,18 +3859,15 @@
         <v>196820</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C217" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D217" s="21">
         <v>251670</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C218" s="2" t="s">
         <v>177</v>
       </c>
@@ -4006,12 +3875,12 @@
         <v>215297</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B219" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C220" s="2" t="s">
         <v>178</v>
       </c>
@@ -4019,24 +3888,21 @@
         <v>248794</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C221" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D221" s="21">
         <v>269870</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B222" s="2" t="s">
-        <v>325</v>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D222" s="21"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C223" s="29" t="s">
         <v>180</v>
       </c>
@@ -4044,18 +3910,15 @@
         <v>296288</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C224" s="26" t="s">
         <v>181</v>
       </c>
       <c r="D224" s="27">
         <v>296289</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C225" s="26" t="s">
         <v>182</v>
       </c>
@@ -4063,12 +3926,12 @@
         <v>296290</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C227" s="26" t="s">
         <v>183</v>
       </c>
@@ -4077,18 +3940,18 @@
       </c>
       <c r="E227" s="28"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C228" s="26" t="s">
         <v>184</v>
       </c>
       <c r="D228" s="27">
         <v>244819</v>
       </c>
-      <c r="E228" s="26">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E228" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C229" s="26" t="s">
         <v>185</v>
       </c>
@@ -4097,7 +3960,7 @@
       </c>
       <c r="E229" s="28"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C230" s="26" t="s">
         <v>186</v>
       </c>
@@ -4108,7 +3971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C231" s="26" t="s">
         <v>187</v>
       </c>
@@ -4117,7 +3980,7 @@
       </c>
       <c r="E231" s="28"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C232" s="26" t="s">
         <v>188</v>
       </c>
